--- a/document/testcase/test case.xlsx
+++ b/document/testcase/test case.xlsx
@@ -871,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,9 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1649,7 +1646,7 @@
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1747,7 +1744,7 @@
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1756,7 +1753,7 @@
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1970,7 +1967,7 @@
       <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -2071,7 +2068,6 @@
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="2"/>
       <c r="H23" s="5" t="s">
         <v>52</v>
       </c>

--- a/document/testcase/test case.xlsx
+++ b/document/testcase/test case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jofo\demo\book-demo\book-demo-backend\document\testcase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76309907-79B6-4519-9360-409633D06140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
   <si>
     <t>number</t>
   </si>
@@ -176,65 +180,60 @@
     <t>check id in the DB</t>
   </si>
   <si>
+    <t>check whether the data on the page is displayed properly</t>
+  </si>
+  <si>
+    <t>list type</t>
+  </si>
+  <si>
+    <t>show the right data</t>
+  </si>
+  <si>
+    <t>check whether the paging is normal</t>
+  </si>
+  <si>
+    <t>click the page</t>
+  </si>
+  <si>
+    <t>check whether the sorting is normal</t>
+  </si>
+  <si>
+    <t>check sort by createTime</t>
+  </si>
+  <si>
+    <t>check id is error value or is null</t>
+  </si>
+  <si>
+    <t>get type</t>
+  </si>
+  <si>
+    <t>set id equals null or string</t>
+  </si>
+  <si>
+    <t>alert message:Please enter the correct ID value</t>
+  </si>
+  <si>
+    <t>delete type</t>
+  </si>
+  <si>
+    <t>check whether status list are normal</t>
+  </si>
+  <si>
+    <t>get status type</t>
+  </si>
+  <si>
+    <t>show all  the data</t>
+  </si>
+  <si>
     <t>alert message:this data is not in the DB,please check</t>
-  </si>
-  <si>
-    <t>check whether the data on the page is displayed properly</t>
-  </si>
-  <si>
-    <t>list type</t>
-  </si>
-  <si>
-    <t>show the right data</t>
-  </si>
-  <si>
-    <t>check whether the paging is normal</t>
-  </si>
-  <si>
-    <t>click the page</t>
-  </si>
-  <si>
-    <t>check whether the sorting is normal</t>
-  </si>
-  <si>
-    <t>check sort by createTime</t>
-  </si>
-  <si>
-    <t>check id is error value or is null</t>
-  </si>
-  <si>
-    <t>get type</t>
-  </si>
-  <si>
-    <t>set id equals null or string</t>
-  </si>
-  <si>
-    <t>alert message:Please enter the correct ID value</t>
-  </si>
-  <si>
-    <t>delete type</t>
-  </si>
-  <si>
-    <t>check whether status list are normal</t>
-  </si>
-  <si>
-    <t>get status type</t>
-  </si>
-  <si>
-    <t>show all  the data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,160 +246,22 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,198 +270,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -623,251 +298,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -891,89 +324,158 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -984,7 +486,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1012,154 +514,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1409,36 +797,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.59765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.46484375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.1328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.265625" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1505,7 +893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:10">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1534,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:10">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1566,7 +954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:10">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1595,7 +983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:10">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1627,7 +1015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="31" customHeight="1" spans="1:10">
+    <row r="7" spans="1:12" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1649,11 +1037,14 @@
       <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1682,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:10">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1704,11 +1095,14 @@
       <c r="H9" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:10">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1730,11 +1124,14 @@
       <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="28.5" spans="1:10">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1766,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1792,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" ht="28.5" spans="1:10">
+    <row r="13" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1809,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>18</v>
@@ -1818,7 +1215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1840,11 +1237,14 @@
       <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="1:10">
+    <row r="15" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1866,11 +1266,14 @@
       <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:10">
+    <row r="16" spans="1:12" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1892,11 +1295,14 @@
       <c r="H16" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:10">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1918,11 +1324,14 @@
       <c r="H17" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" ht="28.5" spans="1:10">
+    <row r="18" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1944,11 +1353,14 @@
       <c r="H18" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:10">
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1970,11 +1382,14 @@
       <c r="H19" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1996,11 +1411,14 @@
       <c r="H20" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="28.5" spans="1:10">
+    <row r="21" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2022,11 +1440,14 @@
       <c r="H21" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="I21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:10">
+    <row r="22" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2048,120 +1469,135 @@
       <c r="H22" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>52</v>
+      <c r="I23" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>52</v>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>52</v>
+      <c r="I25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:10">
+    <row r="26" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>60</v>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:10">
+    <row r="27" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>14</v>
@@ -2170,75 +1606,81 @@
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>60</v>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>64</v>
+      <c r="I28" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>